--- a/Team-Data/2012-13/2-13-2012-13.xlsx
+++ b/Team-Data/2012-13/2-13-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,91 +733,91 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
         <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>0.569</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J2" t="n">
-        <v>80.8</v>
+        <v>80.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L2" t="n">
         <v>8.9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.381</v>
+        <v>0.384</v>
       </c>
       <c r="O2" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="P2" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Q2" t="n">
         <v>0.701</v>
       </c>
       <c r="R2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="S2" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U2" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="V2" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y2" t="n">
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA2" t="n">
         <v>19.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -759,10 +826,10 @@
         <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -786,7 +853,7 @@
         <v>27</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
         <v>12</v>
@@ -795,10 +862,10 @@
         <v>26</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -810,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
         <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
         <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>0.538</v>
+        <v>0.529</v>
       </c>
       <c r="H3" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="I3" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L3" t="n">
         <v>5.6</v>
@@ -881,13 +948,13 @@
         <v>0.34</v>
       </c>
       <c r="O3" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R3" t="n">
         <v>8.6</v>
@@ -899,7 +966,7 @@
         <v>40</v>
       </c>
       <c r="U3" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="V3" t="n">
         <v>14.5</v>
@@ -920,13 +987,13 @@
         <v>20</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.8</v>
+        <v>96.3</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -935,16 +1002,16 @@
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
         <v>8</v>
@@ -959,7 +1026,7 @@
         <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.585</v>
+        <v>0.577</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J4" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="M4" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.352</v>
+        <v>0.346</v>
       </c>
       <c r="O4" t="n">
         <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R4" t="n">
         <v>12.5</v>
@@ -1078,16 +1145,16 @@
         <v>29.8</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
@@ -1096,28 +1163,28 @@
         <v>4.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA4" t="n">
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.2</v>
+        <v>94.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>9</v>
@@ -1129,19 +1196,19 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM4" t="n">
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
@@ -1153,16 +1220,16 @@
         <v>9</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1174,16 +1241,16 @@
         <v>6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
         <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.231</v>
+        <v>0.235</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="J5" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.421</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
@@ -1242,7 +1309,7 @@
         <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O5" t="n">
         <v>19.4</v>
@@ -1251,19 +1318,19 @@
         <v>25.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R5" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S5" t="n">
         <v>29.6</v>
       </c>
       <c r="T5" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U5" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
         <v>14.1</v>
@@ -1284,13 +1351,13 @@
         <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.9</v>
+        <v>-8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -1394,67 +1461,67 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>0.577</v>
+        <v>0.588</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
         <v>4.8</v>
       </c>
       <c r="M6" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.344</v>
+        <v>0.348</v>
       </c>
       <c r="O6" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P6" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R6" t="n">
         <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T6" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U6" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="V6" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
         <v>5.7</v>
@@ -1466,34 +1533,34 @@
         <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>1.6</v>
       </c>
       <c r="AD6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH6" t="n">
         <v>16</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK6" t="n">
         <v>23</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>24</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,13 +1569,13 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>7</v>
@@ -1523,10 +1590,10 @@
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
@@ -1535,7 +1602,7 @@
         <v>12</v>
       </c>
       <c r="AY6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>0.302</v>
+        <v>0.308</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1594,40 +1661,40 @@
         <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>84.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="L7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M7" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P7" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="R7" t="n">
         <v>12.6</v>
       </c>
       <c r="S7" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T7" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U7" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V7" t="n">
         <v>14.4</v>
@@ -1642,25 +1709,25 @@
         <v>7.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB7" t="n">
         <v>97</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1678,13 +1745,13 @@
         <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1693,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>8</v>
@@ -1708,13 +1775,13 @@
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>12</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1726,7 +1793,7 @@
         <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -1758,112 +1825,112 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
         <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.442</v>
+        <v>0.431</v>
       </c>
       <c r="H8" t="n">
         <v>49</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>84.5</v>
+        <v>84.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.453</v>
       </c>
       <c r="L8" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="M8" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N8" t="n">
         <v>0.367</v>
       </c>
       <c r="O8" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P8" t="n">
         <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.797</v>
+        <v>0.794</v>
       </c>
       <c r="R8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V8" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AA8" t="n">
         <v>19.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.4</v>
+        <v>-1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN8" t="n">
         <v>8</v>
@@ -1872,22 +1939,22 @@
         <v>9</v>
       </c>
       <c r="AP8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV8" t="n">
         <v>6</v>
@@ -1908,7 +1975,7 @@
         <v>20</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
         <v>19</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -1940,55 +2007,55 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
         <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>0.611</v>
+        <v>0.623</v>
       </c>
       <c r="H9" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I9" t="n">
         <v>40.3</v>
       </c>
       <c r="J9" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L9" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
         <v>19.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.338</v>
       </c>
       <c r="O9" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P9" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="S9" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T9" t="n">
-        <v>45.5</v>
+        <v>45.8</v>
       </c>
       <c r="U9" t="n">
         <v>23.9</v>
@@ -1997,25 +2064,25 @@
         <v>15.5</v>
       </c>
       <c r="W9" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X9" t="n">
         <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA9" t="n">
         <v>22</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD9" t="n">
         <v>3</v>
@@ -2042,16 +2109,16 @@
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>17</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
         <v>3</v>
@@ -2066,10 +2133,10 @@
         <v>10</v>
       </c>
       <c r="AT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="n">
         <v>2</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>3</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
@@ -2078,13 +2145,13 @@
         <v>3</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
         <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>0.389</v>
+        <v>0.377</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2140,25 +2207,25 @@
         <v>36.4</v>
       </c>
       <c r="J10" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K10" t="n">
         <v>0.446</v>
       </c>
       <c r="L10" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M10" t="n">
         <v>16.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.365</v>
+        <v>0.362</v>
       </c>
       <c r="O10" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P10" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q10" t="n">
         <v>0.697</v>
@@ -2167,37 +2234,37 @@
         <v>12.8</v>
       </c>
       <c r="S10" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U10" t="n">
         <v>20.6</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y10" t="n">
         <v>5.6</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>5.5</v>
       </c>
       <c r="Z10" t="n">
         <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="AD10" t="n">
         <v>3</v>
@@ -2209,31 +2276,31 @@
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2254,10 +2321,10 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX10" t="n">
         <v>8</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>-0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2433,10 +2500,10 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW11" t="n">
         <v>28</v>
@@ -2451,10 +2518,10 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="n">
         <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.527</v>
+        <v>0.537</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2510,13 +2577,13 @@
         <v>0.462</v>
       </c>
       <c r="L12" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="M12" t="n">
         <v>28.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O12" t="n">
         <v>19.1</v>
@@ -2525,28 +2592,28 @@
         <v>25.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R12" t="n">
         <v>10.9</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W12" t="n">
         <v>8.4</v>
       </c>
       <c r="X12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y12" t="n">
         <v>6.3</v>
@@ -2558,22 +2625,22 @@
         <v>19.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.1</v>
+        <v>106.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2582,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
         <v>6</v>
@@ -2594,19 +2661,19 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2615,13 +2682,13 @@
         <v>10</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX12" t="n">
         <v>27</v>
@@ -2636,10 +2703,10 @@
         <v>16</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
         <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J13" t="n">
-        <v>81.2</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K13" t="n">
         <v>0.429</v>
@@ -2704,55 +2771,55 @@
         <v>16.5</v>
       </c>
       <c r="P13" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S13" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T13" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U13" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W13" t="n">
         <v>6.8</v>
       </c>
       <c r="X13" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y13" t="n">
         <v>5.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA13" t="n">
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AD13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE13" t="n">
         <v>8</v>
       </c>
-      <c r="AE13" t="n">
-        <v>7</v>
-      </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
         <v>8</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2773,7 +2840,7 @@
         <v>16</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN13" t="n">
         <v>19</v>
@@ -2794,34 +2861,34 @@
         <v>5</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
         <v>14</v>
       </c>
       <c r="BA13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>28</v>
       </c>
       <c r="BC13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,46 +2935,46 @@
         <v>38.1</v>
       </c>
       <c r="J14" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O14" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P14" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q14" t="n">
         <v>0.702</v>
       </c>
       <c r="R14" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S14" t="n">
         <v>30.3</v>
       </c>
       <c r="T14" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W14" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
         <v>5.9</v>
@@ -2919,10 +2986,10 @@
         <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC14" t="n">
         <v>6.4</v>
@@ -2946,7 +3013,7 @@
         <v>7</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2958,10 +3025,10 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2973,16 +3040,16 @@
         <v>13</v>
       </c>
       <c r="AS14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3177,22 @@
         <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>19</v>
@@ -3134,13 +3201,13 @@
         <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3164,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="AV15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -3292,28 +3359,28 @@
         <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH16" t="n">
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3331,7 +3398,7 @@
         <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
@@ -3352,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>6.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM17" t="n">
         <v>9</v>
@@ -3507,13 +3574,13 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP17" t="n">
         <v>11</v>
       </c>
-      <c r="AP17" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>28</v>
@@ -3531,10 +3598,10 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
         <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
@@ -3596,7 +3663,7 @@
         <v>37.6</v>
       </c>
       <c r="J18" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.432</v>
@@ -3605,10 +3672,10 @@
         <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O18" t="n">
         <v>15.8</v>
@@ -3617,19 +3684,19 @@
         <v>21.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R18" t="n">
         <v>13.1</v>
       </c>
       <c r="S18" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T18" t="n">
         <v>43.5</v>
       </c>
       <c r="U18" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V18" t="n">
         <v>14.4</v>
@@ -3644,7 +3711,7 @@
         <v>4.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA18" t="n">
         <v>19.7</v>
@@ -3653,10 +3720,10 @@
         <v>97.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3680,13 +3747,13 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3701,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT18" t="n">
         <v>7</v>
@@ -3710,13 +3777,13 @@
         <v>15</v>
       </c>
       <c r="AV18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW18" t="n">
         <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -3760,67 +3827,67 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>0.38</v>
+        <v>0.388</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="J19" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.301</v>
+        <v>0.302</v>
       </c>
       <c r="O19" t="n">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="P19" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="R19" t="n">
         <v>12.9</v>
       </c>
       <c r="S19" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T19" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U19" t="n">
         <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W19" t="n">
         <v>7.9</v>
       </c>
       <c r="X19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y19" t="n">
         <v>6</v>
@@ -3832,7 +3899,7 @@
         <v>22.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="AC19" t="n">
         <v>-2.1</v>
@@ -3847,7 +3914,7 @@
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
@@ -3856,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3871,10 +3938,10 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
         <v>24</v>
@@ -3883,16 +3950,16 @@
         <v>5</v>
       </c>
       <c r="AS19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW19" t="n">
         <v>15</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="n">
         <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.358</v>
+        <v>0.346</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="K20" t="n">
         <v>0.453</v>
@@ -3969,10 +4036,10 @@
         <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O20" t="n">
         <v>14.8</v>
@@ -3981,67 +4048,67 @@
         <v>19.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R20" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W20" t="n">
         <v>6.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3</v>
+        <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF20" t="n">
         <v>24</v>
       </c>
       <c r="AG20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI20" t="n">
         <v>24</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
@@ -4059,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
         <v>17</v>
@@ -4071,10 +4138,10 @@
         <v>20</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4086,16 +4153,16 @@
         <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -4124,58 +4191,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" t="n">
         <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>0.64</v>
+        <v>0.653</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J21" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L21" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="M21" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="N21" t="n">
         <v>0.381</v>
       </c>
       <c r="O21" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="P21" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R21" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
         <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U21" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="V21" t="n">
         <v>11.6</v>
@@ -4184,22 +4251,22 @@
         <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z21" t="n">
         <v>18.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AD21" t="n">
         <v>28</v>
@@ -4208,22 +4275,22 @@
         <v>7</v>
       </c>
       <c r="AF21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG21" t="n">
         <v>5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>6</v>
       </c>
       <c r="AH21" t="n">
         <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ21" t="n">
         <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4238,22 +4305,22 @@
         <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
         <v>18</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4262,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="AX21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
@@ -4271,7 +4338,7 @@
         <v>9</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
         <v>9</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4411,7 +4478,7 @@
         <v>9</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN22" t="n">
         <v>2</v>
@@ -4429,7 +4496,7 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
         <v>11</v>
@@ -4444,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="AX22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY22" t="n">
         <v>4</v>
@@ -4456,7 +4523,7 @@
         <v>8</v>
       </c>
       <c r="BB22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="n">
-        <v>0.288</v>
+        <v>0.294</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
@@ -4509,70 +4576,70 @@
         <v>83.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L23" t="n">
         <v>6.6</v>
       </c>
       <c r="M23" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O23" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="P23" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="R23" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S23" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T23" t="n">
         <v>42.8</v>
       </c>
       <c r="U23" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>94</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-4.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
       </c>
       <c r="AF23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
         <v>29</v>
@@ -4593,10 +4660,10 @@
         <v>17</v>
       </c>
       <c r="AM23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4617,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV23" t="n">
         <v>13</v>
@@ -4626,7 +4693,7 @@
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY23" t="n">
         <v>14</v>
@@ -4638,10 +4705,10 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
         <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>0.431</v>
+        <v>0.44</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,7 +4755,7 @@
         <v>37.2</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.443</v>
@@ -4697,19 +4764,19 @@
         <v>6.1</v>
       </c>
       <c r="M24" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O24" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="P24" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.721</v>
+        <v>0.717</v>
       </c>
       <c r="R24" t="n">
         <v>10.9</v>
@@ -4721,25 +4788,25 @@
         <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W24" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X24" t="n">
         <v>5</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="AB24" t="n">
         <v>92.3</v>
@@ -4748,37 +4815,37 @@
         <v>-3.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG24" t="n">
         <v>19</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>20</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,13 +4857,13 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS24" t="n">
         <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="n">
         <v>13</v>
@@ -4811,10 +4878,10 @@
         <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4823,7 +4890,7 @@
         <v>29</v>
       </c>
       <c r="BC24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-5.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG25" t="n">
         <v>26</v>
@@ -4945,10 +5012,10 @@
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
         <v>19</v>
@@ -4969,19 +5036,19 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV25" t="n">
         <v>14</v>
@@ -4996,7 +5063,7 @@
         <v>18</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
@@ -5005,7 +5072,7 @@
         <v>22</v>
       </c>
       <c r="BC25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -5034,88 +5101,88 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.472</v>
+        <v>0.481</v>
       </c>
       <c r="H26" t="n">
         <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K26" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L26" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="N26" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O26" t="n">
         <v>16.3</v>
       </c>
       <c r="P26" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S26" t="n">
         <v>30.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U26" t="n">
         <v>21.2</v>
       </c>
       <c r="V26" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.7</v>
+        <v>97.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF26" t="n">
         <v>17</v>
@@ -5127,67 +5194,67 @@
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP26" t="n">
         <v>21</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>22</v>
       </c>
       <c r="AQ26" t="n">
         <v>8</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB26" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="n">
-        <v>0.352</v>
+        <v>0.358</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5237,40 +5304,40 @@
         <v>83.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L27" t="n">
         <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="P27" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.757</v>
+        <v>0.754</v>
       </c>
       <c r="R27" t="n">
         <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="T27" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U27" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
         <v>8.4</v>
@@ -5279,19 +5346,19 @@
         <v>4.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
         <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
         <v>96.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.9</v>
+        <v>-6.6</v>
       </c>
       <c r="AD27" t="n">
         <v>3</v>
@@ -5300,10 +5367,10 @@
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>20</v>
@@ -5312,10 +5379,10 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
@@ -5324,16 +5391,16 @@
         <v>20</v>
       </c>
       <c r="AN27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>17</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5348,7 +5415,7 @@
         <v>28</v>
       </c>
       <c r="AV27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW27" t="n">
         <v>8</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" t="n">
         <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>0.778</v>
+        <v>0.774</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,37 +5483,37 @@
         <v>39.6</v>
       </c>
       <c r="J28" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M28" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.384</v>
+        <v>0.386</v>
       </c>
       <c r="O28" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P28" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R28" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="S28" t="n">
         <v>33</v>
       </c>
       <c r="T28" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U28" t="n">
         <v>25</v>
@@ -5455,7 +5522,7 @@
         <v>14.6</v>
       </c>
       <c r="W28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X28" t="n">
         <v>5.1</v>
@@ -5467,13 +5534,13 @@
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AD28" t="n">
         <v>3</v>
@@ -5494,13 +5561,13 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5512,10 +5579,10 @@
         <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5530,16 +5597,16 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.396</v>
+        <v>0.385</v>
       </c>
       <c r="H29" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I29" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.444</v>
@@ -5610,34 +5677,34 @@
         <v>21.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O29" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P29" t="n">
         <v>22.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R29" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S29" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="V29" t="n">
         <v>13</v>
       </c>
       <c r="W29" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X29" t="n">
         <v>4.6</v>
@@ -5646,19 +5713,19 @@
         <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA29" t="n">
         <v>19.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5667,7 +5734,7 @@
         <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
@@ -5682,25 +5749,25 @@
         <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" t="n">
         <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.556</v>
+        <v>0.547</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,19 +5847,19 @@
         <v>36.9</v>
       </c>
       <c r="J30" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.452</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M30" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O30" t="n">
         <v>18.4</v>
@@ -5807,13 +5874,13 @@
         <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T30" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U30" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V30" t="n">
         <v>14.9</v>
@@ -5843,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -5855,49 +5922,49 @@
         <v>13</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>13</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="n">
         <v>18</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
       </c>
       <c r="F31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>0.294</v>
+        <v>0.3</v>
       </c>
       <c r="H31" t="n">
         <v>48.7</v>
       </c>
       <c r="I31" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82.3</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L31" t="n">
         <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O31" t="n">
         <v>14.4</v>
@@ -5983,16 +6050,16 @@
         <v>19.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.733</v>
+        <v>0.735</v>
       </c>
       <c r="R31" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T31" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U31" t="n">
         <v>21.7</v>
@@ -6016,13 +6083,13 @@
         <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6046,7 +6113,7 @@
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AM31" t="n">
         <v>18</v>
@@ -6067,16 +6134,16 @@
         <v>23</v>
       </c>
       <c r="AS31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
         <v>18</v>
@@ -6091,7 +6158,7 @@
         <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-13-2012-13</t>
+          <t>2013-02-13</t>
         </is>
       </c>
     </row>
